--- a/excel/MSQ.xlsx
+++ b/excel/MSQ.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="B2:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B3" activeCellId="1" sqref="C2:L12 B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14"/>
@@ -3265,7 +3265,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/excel/MSQ.xlsx
+++ b/excel/MSQ.xlsx
@@ -9,8 +9,16 @@
   <sheets>
     <sheet name="M^2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -64,6 +72,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -113,6 +129,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,7 +463,7 @@
   <dimension ref="B2:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="C2:L12 B3:B12"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14"/>
@@ -614,9 +638,9 @@
       <c r="P7" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" t="e">
-        <f ca="1">_1__xlfn.CHISQ.D(Q6,1)</f>
-        <v>#NAME?</v>
+      <c r="Q7">
+        <f>_1__xlfn.CHISQ.D(Q6,1)</f>
+        <v>1.5561711153476264E-2</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -3265,6 +3289,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
